--- a/fr/fr-noun.xlsx
+++ b/fr/fr-noun.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="1"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
     <sheet name="job" sheetId="2" r:id="rId2"/>
+    <sheet name="building" sheetId="3" r:id="rId3"/>
+    <sheet name="doc" sheetId="4" r:id="rId4"/>
+    <sheet name="symbol" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="187">
   <si>
     <t>French</t>
   </si>
@@ -40,6 +43,555 @@
   </si>
   <si>
     <t>doctor</t>
+  </si>
+  <si>
+    <t>acrobate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acrobat</t>
+  </si>
+  <si>
+    <t>infirmière</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>ingénieur</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>avocat</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>juge</t>
+  </si>
+  <si>
+    <t>judge</t>
+  </si>
+  <si>
+    <t>ouvrier</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>maçon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mason</t>
+  </si>
+  <si>
+    <t>écrivain</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>professor</t>
+  </si>
+  <si>
+    <t>pâtissier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pastry chef</t>
+  </si>
+  <si>
+    <t>électricien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> electrician</t>
+  </si>
+  <si>
+    <t>saltimbanque</t>
+  </si>
+  <si>
+    <t>street performer</t>
+  </si>
+  <si>
+    <t>mécanicien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mechanic</t>
+  </si>
+  <si>
+    <t>dompteur</t>
+  </si>
+  <si>
+    <t>animal tamer</t>
+  </si>
+  <si>
+    <t>architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> architect</t>
+  </si>
+  <si>
+    <t>menuisier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> carpenter</t>
+  </si>
+  <si>
+    <t>plombier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plumber</t>
+  </si>
+  <si>
+    <t>comptable</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>photographe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> photographer</t>
+  </si>
+  <si>
+    <t>chiffreur</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>journaliste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> journalist</t>
+  </si>
+  <si>
+    <t>enseignant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teacher educator</t>
+  </si>
+  <si>
+    <t>informaticien</t>
+  </si>
+  <si>
+    <t>computer engineer</t>
+  </si>
+  <si>
+    <t>correcteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proofreader</t>
+  </si>
+  <si>
+    <t>maison</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>chambre</t>
+  </si>
+  <si>
+    <t>sleeping room</t>
+  </si>
+  <si>
+    <t>rez-de-chaussée</t>
+  </si>
+  <si>
+    <t>ground floor</t>
+  </si>
+  <si>
+    <t>immeuble</t>
+  </si>
+  <si>
+    <t>big building</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>plafond</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>bâtiment</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>salon</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>mur</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>appartement</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>palier</t>
+  </si>
+  <si>
+    <t>hallway</t>
+  </si>
+  <si>
+    <t>escalier</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>hôtel</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>allée</t>
+  </si>
+  <si>
+    <t>alley</t>
+  </si>
+  <si>
+    <t>porte</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>gîte</t>
+  </si>
+  <si>
+    <t>little hotel</t>
+  </si>
+  <si>
+    <t>salle d'eau</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>fenêtre</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>auberge</t>
+  </si>
+  <si>
+    <t>combles</t>
+  </si>
+  <si>
+    <t>attics</t>
+  </si>
+  <si>
+    <t>lavabo</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>cabane</t>
+  </si>
+  <si>
+    <t>lodging hut</t>
+  </si>
+  <si>
+    <t>toit</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>cabanon</t>
+  </si>
+  <si>
+    <t>cottage</t>
+  </si>
+  <si>
+    <t>étage</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>château</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>cloison</t>
+  </si>
+  <si>
+    <t>partitions</t>
+  </si>
+  <si>
+    <t>église</t>
+  </si>
+  <si>
+    <t>chapel</t>
+  </si>
+  <si>
+    <t>bain</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>cellar</t>
+  </si>
+  <si>
+    <t>jardin</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>piscine</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>ferme</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>dossier</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>contrat</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>fiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> card/file</t>
+  </si>
+  <si>
+    <t>thèse</t>
+  </si>
+  <si>
+    <t>thesis</t>
+  </si>
+  <si>
+    <t>affiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poster</t>
+  </si>
+  <si>
+    <t>revue</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>carnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> notebook</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>feuille</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sheet</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> letter</t>
+  </si>
+  <si>
+    <t>tampon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stamp</t>
+  </si>
+  <si>
+    <t>formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> form</t>
+  </si>
+  <si>
+    <t>brouillon</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> list</t>
+  </si>
+  <si>
+    <t>tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chart</t>
+  </si>
+  <si>
+    <t>chapitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chapter</t>
+  </si>
+  <si>
+    <t>plaquette</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pamphlet</t>
+  </si>
+  <si>
+    <t>colonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> column</t>
+  </si>
+  <si>
+    <t>tract</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leaflet</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> address</t>
+  </si>
+  <si>
+    <t>autocollant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sticker</t>
+  </si>
+  <si>
+    <t>virgule</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>cédilla</t>
+  </si>
+  <si>
+    <t>cedilla</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>dot/period</t>
+  </si>
+  <si>
+    <t>tréma</t>
+  </si>
+  <si>
+    <t>dieresis</t>
+  </si>
+  <si>
+    <t>traitd'union</t>
+  </si>
+  <si>
+    <t>hyphen</t>
+  </si>
+  <si>
+    <t>accent aigu</t>
+  </si>
+  <si>
+    <t>acute accent</t>
+  </si>
+  <si>
+    <t>tiret</t>
+  </si>
+  <si>
+    <t>dash/stroke</t>
+  </si>
+  <si>
+    <t>accent grave</t>
+  </si>
+  <si>
+    <t>grave accent</t>
+  </si>
+  <si>
+    <t>guillemet</t>
+  </si>
+  <si>
+    <t>quotation mark</t>
+  </si>
+  <si>
+    <t>accent circonflexe</t>
+  </si>
+  <si>
+    <t>circumflex accent</t>
+  </si>
+  <si>
+    <t>alinéa</t>
+  </si>
+  <si>
+    <t>linebreak</t>
+  </si>
+  <si>
+    <t>ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> line</t>
+  </si>
+  <si>
+    <t>soulignement</t>
+  </si>
+  <si>
+    <t>underline</t>
   </si>
 </sst>
 </file>
@@ -655,12 +1207,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1244,13 +1811,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:J$1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="14.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="17.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="13.2307692307692" customWidth="1"/>
+    <col min="4" max="4" width="19.0769230769231" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1271,12 +1844,8 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1285,12 +1854,925 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="14.6153846153846" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" ht="3" customHeight="1" spans="1:2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" hidden="1" spans="1:2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.3846153846154" customWidth="1"/>
+    <col min="2" max="2" width="12.6153846153846" customWidth="1"/>
+    <col min="3" max="3" width="12.0769230769231" customWidth="1"/>
+    <col min="4" max="4" width="10.7692307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.8461538461538" customWidth="1"/>
+    <col min="2" max="2" width="16.0769230769231" customWidth="1"/>
+    <col min="3" max="3" width="18.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="18.6923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-noun.xlsx
+++ b/fr/fr-noun.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="13960"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
     <sheet name="job" sheetId="2" r:id="rId2"/>
-    <sheet name="building" sheetId="3" r:id="rId3"/>
+    <sheet name="loc" sheetId="3" r:id="rId3"/>
     <sheet name="doc" sheetId="4" r:id="rId4"/>
     <sheet name="symbol" sheetId="5" r:id="rId5"/>
+    <sheet name="sport" sheetId="6" r:id="rId6"/>
+    <sheet name="cloth" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="352">
   <si>
     <t>French</t>
   </si>
@@ -39,22 +41,412 @@
     <t>Enligsh</t>
   </si>
   <si>
+    <t>ail</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>banane</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>couteau</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>bouilli</t>
+  </si>
+  <si>
+    <t>boiled</t>
+  </si>
+  <si>
+    <t>aubergine</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>carotte</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>mixeur</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>frit</t>
+  </si>
+  <si>
+    <t>fried</t>
+  </si>
+  <si>
+    <t>betterave</t>
+  </si>
+  <si>
+    <t>beetroot</t>
+  </si>
+  <si>
+    <t>concombre</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>poêle</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>grillé</t>
+  </si>
+  <si>
+    <t>grilled</t>
+  </si>
+  <si>
+    <t>beurre</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>herbe</t>
+  </si>
+  <si>
+    <t>herb</t>
+  </si>
+  <si>
+    <t>éplucheur</t>
+  </si>
+  <si>
+    <t>peeler</t>
+  </si>
+  <si>
+    <t>haché</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>champignon</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>mouton</t>
+  </si>
+  <si>
+    <t>mutton</t>
+  </si>
+  <si>
+    <t>fouet</t>
+  </si>
+  <si>
+    <t>whisk</t>
+  </si>
+  <si>
+    <t>salé</t>
+  </si>
+  <si>
+    <t>salty</t>
+  </si>
+  <si>
+    <t>chou</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>oignon</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>sauté</t>
+  </si>
+  <si>
+    <t>sautéed</t>
+  </si>
+  <si>
+    <t>citron</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>porc</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>émincé</t>
+  </si>
+  <si>
+    <t>sliced thin</t>
+  </si>
+  <si>
+    <t>fromage</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pâtes</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>sucré</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>jambon</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>riz</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>lait</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>légume</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>tomate</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>poisson</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>échalote</t>
+  </si>
+  <si>
+    <t>shallot</t>
+  </si>
+  <si>
+    <t>poivre</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>épice</t>
+  </si>
+  <si>
+    <t>spice</t>
+  </si>
+  <si>
+    <t>pomme</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>épinard</t>
+  </si>
+  <si>
+    <t>spinach</t>
+  </si>
+  <si>
+    <t>pomme de terre</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>poulet</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>veau</t>
+  </si>
+  <si>
+    <t>calf</t>
+  </si>
+  <si>
+    <t>viande</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>volaille</t>
+  </si>
+  <si>
+    <t>poultry</t>
+  </si>
+  <si>
+    <t>œuf</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>avocat</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>acrobate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acrobat</t>
+  </si>
+  <si>
+    <t>chiffreur</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> architect</t>
+  </si>
+  <si>
+    <t>comptable</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>électricien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> electrician</t>
+  </si>
+  <si>
+    <t>correcteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proofreader</t>
+  </si>
+  <si>
+    <t>journaliste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> journalist</t>
+  </si>
+  <si>
+    <t>dompteur</t>
+  </si>
+  <si>
+    <t>animal tamer</t>
+  </si>
+  <si>
+    <t>maçon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mason</t>
+  </si>
+  <si>
+    <t>enseignant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teacher educator</t>
+  </si>
+  <si>
+    <t>mécanicien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mechanic</t>
+  </si>
+  <si>
+    <t>infirmière</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>photographe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> photographer</t>
+  </si>
+  <si>
+    <t>menuisier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> carpenter</t>
+  </si>
+  <si>
+    <t>plombier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plumber</t>
+  </si>
+  <si>
     <t>médecin</t>
   </si>
   <si>
     <t>doctor</t>
   </si>
   <si>
-    <t>acrobate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acrobat</t>
-  </si>
-  <si>
-    <t>infirmière</t>
-  </si>
-  <si>
-    <t>nurse</t>
+    <t>informaticien</t>
+  </si>
+  <si>
+    <t>computer engineer</t>
+  </si>
+  <si>
+    <t>ouvrier</t>
+  </si>
+  <si>
+    <t>worker</t>
   </si>
   <si>
     <t>ingénieur</t>
@@ -63,10 +455,10 @@
     <t>engineer</t>
   </si>
   <si>
-    <t>avocat</t>
-  </si>
-  <si>
-    <t>lawyer</t>
+    <t>pâtissier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pastry chef</t>
   </si>
   <si>
     <t>juge</t>
@@ -75,16 +467,16 @@
     <t>judge</t>
   </si>
   <si>
-    <t>ouvrier</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>maçon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mason</t>
+    <t>saltimbanque</t>
+  </si>
+  <si>
+    <t>street performer</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>professor</t>
   </si>
   <si>
     <t>écrivain</t>
@@ -93,100 +485,76 @@
     <t>writer</t>
   </si>
   <si>
-    <t>professeur</t>
-  </si>
-  <si>
-    <t>professor</t>
-  </si>
-  <si>
-    <t>pâtissier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pastry chef</t>
-  </si>
-  <si>
-    <t>électricien</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> electrician</t>
-  </si>
-  <si>
-    <t>saltimbanque</t>
-  </si>
-  <si>
-    <t>street performer</t>
-  </si>
-  <si>
-    <t>mécanicien</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mechanic</t>
-  </si>
-  <si>
-    <t>dompteur</t>
-  </si>
-  <si>
-    <t>animal tamer</t>
-  </si>
-  <si>
-    <t>architecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> architect</t>
-  </si>
-  <si>
-    <t>menuisier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> carpenter</t>
-  </si>
-  <si>
-    <t>plombier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plumber</t>
-  </si>
-  <si>
-    <t>comptable</t>
-  </si>
-  <si>
-    <t>accountant</t>
-  </si>
-  <si>
-    <t>photographe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> photographer</t>
-  </si>
-  <si>
-    <t>chiffreur</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>journaliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> journalist</t>
-  </si>
-  <si>
-    <t>enseignant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> teacher educator</t>
-  </si>
-  <si>
-    <t>informaticien</t>
-  </si>
-  <si>
-    <t>computer engineer</t>
-  </si>
-  <si>
-    <t>correcteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> proofreader</t>
+    <t>appartement</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>allée</t>
+  </si>
+  <si>
+    <t>alley</t>
+  </si>
+  <si>
+    <t>bain</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>bâtiment</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>chambre</t>
+  </si>
+  <si>
+    <t>sleeping room</t>
+  </si>
+  <si>
+    <t>cloison</t>
+  </si>
+  <si>
+    <t>partitions</t>
+  </si>
+  <si>
+    <t>hôtel</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>combles</t>
+  </si>
+  <si>
+    <t>attics</t>
+  </si>
+  <si>
+    <t>escalier</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>immeuble</t>
+  </si>
+  <si>
+    <t>big building</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>fenêtre</t>
+  </si>
+  <si>
+    <t>window</t>
   </si>
   <si>
     <t>maison</t>
@@ -195,10 +563,67 @@
     <t>house</t>
   </si>
   <si>
-    <t>chambre</t>
-  </si>
-  <si>
-    <t>sleeping room</t>
+    <t>palier</t>
+  </si>
+  <si>
+    <t>hallway</t>
+  </si>
+  <si>
+    <t>lavabo</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>gîte</t>
+  </si>
+  <si>
+    <t>little hotel</t>
+  </si>
+  <si>
+    <t>salle d'eau</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>mur</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>auberge</t>
+  </si>
+  <si>
+    <t>salon</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>plafond</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>cabane</t>
+  </si>
+  <si>
+    <t>lodging hut</t>
+  </si>
+  <si>
+    <t>porte</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>cabanon</t>
+  </si>
+  <si>
+    <t>cottage</t>
   </si>
   <si>
     <t>rez-de-chaussée</t>
@@ -207,115 +632,10 @@
     <t>ground floor</t>
   </si>
   <si>
-    <t>immeuble</t>
-  </si>
-  <si>
-    <t>big building</t>
-  </si>
-  <si>
-    <t>cuisine</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>plafond</t>
-  </si>
-  <si>
-    <t>ceiling</t>
-  </si>
-  <si>
-    <t>bâtiment</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>salon</t>
-  </si>
-  <si>
-    <t>living room</t>
-  </si>
-  <si>
-    <t>mur</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>appartement</t>
-  </si>
-  <si>
-    <t>apartment</t>
-  </si>
-  <si>
-    <t>palier</t>
-  </si>
-  <si>
-    <t>hallway</t>
-  </si>
-  <si>
-    <t>escalier</t>
-  </si>
-  <si>
-    <t>stairs</t>
-  </si>
-  <si>
-    <t>hôtel</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>allée</t>
-  </si>
-  <si>
-    <t>alley</t>
-  </si>
-  <si>
-    <t>porte</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>gîte</t>
-  </si>
-  <si>
-    <t>little hotel</t>
-  </si>
-  <si>
-    <t>salle d'eau</t>
-  </si>
-  <si>
-    <t>bathroom</t>
-  </si>
-  <si>
-    <t>fenêtre</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>auberge</t>
-  </si>
-  <si>
-    <t>combles</t>
-  </si>
-  <si>
-    <t>attics</t>
-  </si>
-  <si>
-    <t>lavabo</t>
-  </si>
-  <si>
-    <t>sink</t>
-  </si>
-  <si>
-    <t>cabane</t>
-  </si>
-  <si>
-    <t>lodging hut</t>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>cellar</t>
   </si>
   <si>
     <t>toit</t>
@@ -324,10 +644,10 @@
     <t>roof</t>
   </si>
   <si>
-    <t>cabanon</t>
-  </si>
-  <si>
-    <t>cottage</t>
+    <t>château</t>
+  </si>
+  <si>
+    <t>castle</t>
   </si>
   <si>
     <t>étage</t>
@@ -336,16 +656,28 @@
     <t>floor</t>
   </si>
   <si>
-    <t>château</t>
-  </si>
-  <si>
-    <t>castle</t>
-  </si>
-  <si>
-    <t>cloison</t>
-  </si>
-  <si>
-    <t>partitions</t>
+    <t>ferme</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>jardin</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>marché</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>piscine</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
   <si>
     <t>église</t>
@@ -354,34 +686,109 @@
     <t>chapel</t>
   </si>
   <si>
-    <t>bain</t>
-  </si>
-  <si>
-    <t>bath</t>
-  </si>
-  <si>
-    <t>cave</t>
-  </si>
-  <si>
-    <t>cellar</t>
-  </si>
-  <si>
-    <t>jardin</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>piscine</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>ferme</t>
-  </si>
-  <si>
-    <t>farm</t>
+    <t>charcuterie</t>
+  </si>
+  <si>
+    <t>pâtisserie</t>
+  </si>
+  <si>
+    <t>boulangerie</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> address</t>
+  </si>
+  <si>
+    <t>affiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poster</t>
+  </si>
+  <si>
+    <t>chapitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chapter</t>
+  </si>
+  <si>
+    <t>autocollant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sticker</t>
+  </si>
+  <si>
+    <t>colonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> column</t>
+  </si>
+  <si>
+    <t>brouillon</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>contrat</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>carnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> notebook</t>
+  </si>
+  <si>
+    <t>formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> form</t>
+  </si>
+  <si>
+    <t>dossier</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> letter</t>
+  </si>
+  <si>
+    <t>feuille</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sheet</t>
+  </si>
+  <si>
+    <t>liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> list</t>
+  </si>
+  <si>
+    <t>fiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> card/file</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>plaquette</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pamphlet</t>
   </si>
   <si>
     <t>rapport</t>
@@ -390,22 +797,22 @@
     <t>report</t>
   </si>
   <si>
-    <t>dossier</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>contrat</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>fiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> card/file</t>
+    <t>tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chart</t>
+  </si>
+  <si>
+    <t>revue</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>tampon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stamp</t>
   </si>
   <si>
     <t>thèse</t>
@@ -414,106 +821,82 @@
     <t>thesis</t>
   </si>
   <si>
-    <t>affiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poster</t>
-  </si>
-  <si>
-    <t>revue</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>carnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> notebook</t>
-  </si>
-  <si>
-    <t>manuel</t>
-  </si>
-  <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>feuille</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sheet</t>
-  </si>
-  <si>
-    <t>lettre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> letter</t>
-  </si>
-  <si>
-    <t>tampon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stamp</t>
-  </si>
-  <si>
-    <t>formulaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> form</t>
-  </si>
-  <si>
-    <t>brouillon</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>liste</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> list</t>
-  </si>
-  <si>
-    <t>tableau</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chart</t>
-  </si>
-  <si>
-    <t>chapitre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chapter</t>
-  </si>
-  <si>
-    <t>plaquette</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pamphlet</t>
-  </si>
-  <si>
-    <t>colonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> column</t>
-  </si>
-  <si>
     <t>tract</t>
   </si>
   <si>
     <t xml:space="preserve"> leaflet</t>
   </si>
   <si>
-    <t>adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> address</t>
-  </si>
-  <si>
-    <t>autocollant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sticker</t>
+    <t>alinéa</t>
+  </si>
+  <si>
+    <t>linebreak</t>
+  </si>
+  <si>
+    <t>accent aigu</t>
+  </si>
+  <si>
+    <t>acute accent</t>
+  </si>
+  <si>
+    <t>guillemet</t>
+  </si>
+  <si>
+    <t>quotation mark</t>
+  </si>
+  <si>
+    <t>accent circonflexe</t>
+  </si>
+  <si>
+    <t>circumflex accent</t>
+  </si>
+  <si>
+    <t>ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> line</t>
+  </si>
+  <si>
+    <t>accent grave</t>
+  </si>
+  <si>
+    <t>grave accent</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>dot/period</t>
+  </si>
+  <si>
+    <t>cédilla</t>
+  </si>
+  <si>
+    <t>cedilla</t>
+  </si>
+  <si>
+    <t>soulignement</t>
+  </si>
+  <si>
+    <t>underline</t>
+  </si>
+  <si>
+    <t>tréma</t>
+  </si>
+  <si>
+    <t>dieresis</t>
+  </si>
+  <si>
+    <t>tiret</t>
+  </si>
+  <si>
+    <t>dash/stroke</t>
+  </si>
+  <si>
+    <t>traitd'union</t>
+  </si>
+  <si>
+    <t>hyphen</t>
   </si>
   <si>
     <t>virgule</t>
@@ -522,76 +905,190 @@
     <t>comma</t>
   </si>
   <si>
-    <t>cédilla</t>
-  </si>
-  <si>
-    <t>cedilla</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>dot/period</t>
-  </si>
-  <si>
-    <t>tréma</t>
-  </si>
-  <si>
-    <t>dieresis</t>
-  </si>
-  <si>
-    <t>traitd'union</t>
-  </si>
-  <si>
-    <t>hyphen</t>
-  </si>
-  <si>
-    <t>accent aigu</t>
-  </si>
-  <si>
-    <t>acute accent</t>
-  </si>
-  <si>
-    <t>tiret</t>
-  </si>
-  <si>
-    <t>dash/stroke</t>
-  </si>
-  <si>
-    <t>accent grave</t>
-  </si>
-  <si>
-    <t>grave accent</t>
-  </si>
-  <si>
-    <t>guillemet</t>
-  </si>
-  <si>
-    <t>quotation mark</t>
-  </si>
-  <si>
-    <t>accent circonflexe</t>
-  </si>
-  <si>
-    <t>circumflex accent</t>
-  </si>
-  <si>
-    <t>alinéa</t>
-  </si>
-  <si>
-    <t>linebreak</t>
-  </si>
-  <si>
-    <t>ligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> line</t>
-  </si>
-  <si>
-    <t>soulignement</t>
-  </si>
-  <si>
-    <t>underline</t>
+    <t>canoë-kayak</t>
+  </si>
+  <si>
+    <t>kayaking</t>
+  </si>
+  <si>
+    <t>athlétisme</t>
+  </si>
+  <si>
+    <t>athletics</t>
+  </si>
+  <si>
+    <t>course à pied</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>athlétisme du haut mur</t>
+  </si>
+  <si>
+    <t>high jump</t>
+  </si>
+  <si>
+    <t>escalade</t>
+  </si>
+  <si>
+    <t>climbing</t>
+  </si>
+  <si>
+    <t>boxe</t>
+  </si>
+  <si>
+    <t>boxing</t>
+  </si>
+  <si>
+    <t>natation</t>
+  </si>
+  <si>
+    <t>swimming</t>
+  </si>
+  <si>
+    <t>cyclisme</t>
+  </si>
+  <si>
+    <t>cycling</t>
+  </si>
+  <si>
+    <t>plongée</t>
+  </si>
+  <si>
+    <t>diving</t>
+  </si>
+  <si>
+    <t>gymnastique</t>
+  </si>
+  <si>
+    <t>gymnastics</t>
+  </si>
+  <si>
+    <t>randonnée</t>
+  </si>
+  <si>
+    <t>hiking</t>
+  </si>
+  <si>
+    <t>karaté</t>
+  </si>
+  <si>
+    <t>karate</t>
+  </si>
+  <si>
+    <t>saut en longueur</t>
+  </si>
+  <si>
+    <t>long jump</t>
+  </si>
+  <si>
+    <t>équitation</t>
+  </si>
+  <si>
+    <t>horse riding</t>
+  </si>
+  <si>
+    <t>bague</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>sandale</t>
+  </si>
+  <si>
+    <t>sandal</t>
+  </si>
+  <si>
+    <t>ceinture</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>chapeau</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>chaussure</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>chemise</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>collant</t>
+  </si>
+  <si>
+    <t>tights</t>
+  </si>
+  <si>
+    <t>cravate</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>gilet</t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>jupe</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>maillot</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>pantalon</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>robe</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>veste</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>vêtement</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>écharpe</t>
+  </si>
+  <si>
+    <t>scarf</t>
   </si>
 </sst>
 </file>
@@ -604,13 +1101,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF383A42"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1077,137 +1587,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,16 +1727,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1762,13 +2275,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="11.1538461538462" customWidth="1"/>
+    <col min="3" max="3" width="11.5384615384615" customWidth="1"/>
+    <col min="4" max="4" width="10.3846153846154" customWidth="1"/>
+    <col min="5" max="5" width="10.4615384615385" customWidth="1"/>
+    <col min="6" max="6" width="10.8461538461538" customWidth="1"/>
+    <col min="7" max="7" width="7.92307692307692" customWidth="1"/>
+    <col min="8" max="8" width="10.8461538461538" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -1795,14 +2318,399 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="C2:D16">
+    <sortCondition ref="C2:C16"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1813,8 +2721,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:H$1048576"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1849,16 +2757,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1866,192 +2774,195 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
+      <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>145</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
+      <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="C2:D13">
+    <sortCondition ref="D13"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2063,7 +2974,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2097,282 +3008,303 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
+      <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>69</v>
+      <c r="A4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>75</v>
+      <c r="A5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>81</v>
+      <c r="A6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>84</v>
+      <c r="A7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>183</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>92</v>
+      <c r="A8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>94</v>
+      <c r="A9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
+      <c r="E9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>98</v>
+      <c r="A10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>100</v>
+      <c r="E10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>102</v>
+      <c r="A11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
-        <v>103</v>
+      <c r="E11" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>106</v>
+      <c r="A12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>108</v>
+      <c r="E12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>110</v>
+      <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>112</v>
+      <c r="A14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>114</v>
+      <c r="A15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>116</v>
+      <c r="A16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="6"/>
+      <c r="A18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="6"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" ht="3" customHeight="1" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" hidden="1" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="E2:F12">
+    <sortCondition ref="E2:E12"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B7:B8"/>
   </mergeCells>
@@ -2387,7 +3319,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2413,176 +3345,179 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>118</v>
+      <c r="A2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>158</v>
+      <c r="A12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="C2:D12">
+    <sortCondition ref="C2:C12"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2594,7 +3529,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2621,160 +3556,583 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="C2:D6">
+    <sortCondition ref="C2:C6"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="12.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="23.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="11.4615384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>311</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>315</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>185</v>
+      <c r="A9" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>317</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="C2:D7">
+    <sortCondition ref="C2:C7"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.3846153846154" customWidth="1"/>
+    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/fr/fr-noun.xlsx
+++ b/fr/fr-noun.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13960"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
-    <sheet name="job" sheetId="2" r:id="rId2"/>
-    <sheet name="loc" sheetId="3" r:id="rId3"/>
+    <sheet name="relation" sheetId="9" r:id="rId2"/>
+    <sheet name="job" sheetId="2" r:id="rId3"/>
     <sheet name="doc" sheetId="4" r:id="rId4"/>
-    <sheet name="symbol" sheetId="5" r:id="rId5"/>
-    <sheet name="sport" sheetId="6" r:id="rId6"/>
-    <sheet name="cloth" sheetId="7" r:id="rId7"/>
+    <sheet name="lang" sheetId="8" r:id="rId5"/>
+    <sheet name="symbol" sheetId="5" r:id="rId6"/>
+    <sheet name="loc" sheetId="3" r:id="rId7"/>
+    <sheet name="sport" sheetId="6" r:id="rId8"/>
+    <sheet name="cloth" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="370">
   <si>
     <t>French</t>
   </si>
@@ -335,6 +337,24 @@
     <t>egg</t>
   </si>
   <si>
+    <t>homme</t>
+  </si>
+  <si>
+    <t>femme</t>
+  </si>
+  <si>
+    <t>monsieur</t>
+  </si>
+  <si>
+    <t>madame</t>
+  </si>
+  <si>
+    <t>garçon</t>
+  </si>
+  <si>
+    <t>fille</t>
+  </si>
+  <si>
     <t>avocat</t>
   </si>
   <si>
@@ -485,6 +505,246 @@
     <t>writer</t>
   </si>
   <si>
+    <t>affiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poster</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> address</t>
+  </si>
+  <si>
+    <t>autocollant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sticker</t>
+  </si>
+  <si>
+    <t>chapitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chapter</t>
+  </si>
+  <si>
+    <t>brouillon</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>colonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> column</t>
+  </si>
+  <si>
+    <t>carnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> notebook</t>
+  </si>
+  <si>
+    <t>contrat</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>dossier</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> form</t>
+  </si>
+  <si>
+    <t>feuille</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sheet</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> letter</t>
+  </si>
+  <si>
+    <t>fiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> card/file</t>
+  </si>
+  <si>
+    <t>liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> list</t>
+  </si>
+  <si>
+    <t>plaquette</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pamphlet</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chart</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>tampon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stamp</t>
+  </si>
+  <si>
+    <t>revue</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>tract</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leaflet</t>
+  </si>
+  <si>
+    <t>thèse</t>
+  </si>
+  <si>
+    <t>thesis</t>
+  </si>
+  <si>
+    <t>livre</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>voyelle</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>consonne</t>
+  </si>
+  <si>
+    <t>consonant</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>alinéa</t>
+  </si>
+  <si>
+    <t>linebreak</t>
+  </si>
+  <si>
+    <t>accent aigu</t>
+  </si>
+  <si>
+    <t>acute accent</t>
+  </si>
+  <si>
+    <t>guillemet</t>
+  </si>
+  <si>
+    <t>quotation mark</t>
+  </si>
+  <si>
+    <t>accent circonflexe</t>
+  </si>
+  <si>
+    <t>circumflex accent</t>
+  </si>
+  <si>
+    <t>ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> line</t>
+  </si>
+  <si>
+    <t>accent grave</t>
+  </si>
+  <si>
+    <t>grave accent</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>dot/period</t>
+  </si>
+  <si>
+    <t>cédilla</t>
+  </si>
+  <si>
+    <t>cedilla</t>
+  </si>
+  <si>
+    <t>soulignement</t>
+  </si>
+  <si>
+    <t>underline</t>
+  </si>
+  <si>
+    <t>tréma</t>
+  </si>
+  <si>
+    <t>dieresis</t>
+  </si>
+  <si>
+    <t>tiret</t>
+  </si>
+  <si>
+    <t>dash/stroke</t>
+  </si>
+  <si>
+    <t>traitd'union</t>
+  </si>
+  <si>
+    <t>hyphen</t>
+  </si>
+  <si>
+    <t>virgule</t>
+  </si>
+  <si>
+    <t>comma</t>
+  </si>
+  <si>
+    <t>arobase</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
     <t>appartement</t>
   </si>
   <si>
@@ -662,6 +922,12 @@
     <t>farm</t>
   </si>
   <si>
+    <t>couloir</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
     <t>jardin</t>
   </si>
   <si>
@@ -693,216 +959,6 @@
   </si>
   <si>
     <t>boulangerie</t>
-  </si>
-  <si>
-    <t>adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> address</t>
-  </si>
-  <si>
-    <t>affiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poster</t>
-  </si>
-  <si>
-    <t>chapitre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chapter</t>
-  </si>
-  <si>
-    <t>autocollant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sticker</t>
-  </si>
-  <si>
-    <t>colonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> column</t>
-  </si>
-  <si>
-    <t>brouillon</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>contrat</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>carnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> notebook</t>
-  </si>
-  <si>
-    <t>formulaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> form</t>
-  </si>
-  <si>
-    <t>dossier</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>lettre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> letter</t>
-  </si>
-  <si>
-    <t>feuille</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sheet</t>
-  </si>
-  <si>
-    <t>liste</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> list</t>
-  </si>
-  <si>
-    <t>fiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> card/file</t>
-  </si>
-  <si>
-    <t>manuel</t>
-  </si>
-  <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>plaquette</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pamphlet</t>
-  </si>
-  <si>
-    <t>rapport</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>tableau</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chart</t>
-  </si>
-  <si>
-    <t>revue</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>tampon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stamp</t>
-  </si>
-  <si>
-    <t>thèse</t>
-  </si>
-  <si>
-    <t>thesis</t>
-  </si>
-  <si>
-    <t>tract</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leaflet</t>
-  </si>
-  <si>
-    <t>alinéa</t>
-  </si>
-  <si>
-    <t>linebreak</t>
-  </si>
-  <si>
-    <t>accent aigu</t>
-  </si>
-  <si>
-    <t>acute accent</t>
-  </si>
-  <si>
-    <t>guillemet</t>
-  </si>
-  <si>
-    <t>quotation mark</t>
-  </si>
-  <si>
-    <t>accent circonflexe</t>
-  </si>
-  <si>
-    <t>circumflex accent</t>
-  </si>
-  <si>
-    <t>ligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> line</t>
-  </si>
-  <si>
-    <t>accent grave</t>
-  </si>
-  <si>
-    <t>grave accent</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>dot/period</t>
-  </si>
-  <si>
-    <t>cédilla</t>
-  </si>
-  <si>
-    <t>cedilla</t>
-  </si>
-  <si>
-    <t>soulignement</t>
-  </si>
-  <si>
-    <t>underline</t>
-  </si>
-  <si>
-    <t>tréma</t>
-  </si>
-  <si>
-    <t>dieresis</t>
-  </si>
-  <si>
-    <t>tiret</t>
-  </si>
-  <si>
-    <t>dash/stroke</t>
-  </si>
-  <si>
-    <t>traitd'union</t>
-  </si>
-  <si>
-    <t>hyphen</t>
-  </si>
-  <si>
-    <t>virgule</t>
-  </si>
-  <si>
-    <t>comma</t>
   </si>
   <si>
     <t>canoë-kayak</t>
@@ -1717,7 +1773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,10 +1786,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2277,7 +2342,7 @@
   <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+    <sheetView zoomScale="212" zoomScaleNormal="212" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2483,7 +2548,7 @@
       <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="1"/>
@@ -2542,10 +2607,10 @@
       <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="1"/>
@@ -2608,10 +2673,10 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2635,7 +2700,7 @@
       <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2646,8 +2711,8 @@
       <c r="B17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
@@ -2656,8 +2721,8 @@
       <c r="B18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
@@ -2666,8 +2731,8 @@
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
@@ -2686,22 +2751,22 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
@@ -2719,10 +2784,71 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2757,16 +2883,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2775,176 +2901,176 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2968,13 +3094,496 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="10.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="11.3846153846154" customWidth="1"/>
+    <col min="4" max="4" width="12.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="10.8461538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.8461538461538" customWidth="1"/>
+    <col min="2" max="2" width="16.0769230769231" customWidth="1"/>
+    <col min="3" max="3" width="18.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="18.6923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="C2:D6">
+    <sortCondition ref="C2:C6"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3009,260 +3618,266 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>294</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="B20" s="3"/>
     </row>
@@ -3313,412 +3928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11.3846153846154" customWidth="1"/>
-    <col min="2" max="2" width="12.6153846153846" customWidth="1"/>
-    <col min="3" max="3" width="12.0769230769231" customWidth="1"/>
-    <col min="4" max="4" width="10.7692307692308" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-  </sheetData>
-  <sortState ref="C2:D12">
-    <sortCondition ref="C2:C12"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="13.8461538461538" customWidth="1"/>
-    <col min="2" max="2" width="16.0769230769231" customWidth="1"/>
-    <col min="3" max="3" width="18.4615384615385" customWidth="1"/>
-    <col min="4" max="4" width="18.6923076923077" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-  </sheetData>
-  <sortState ref="C2:D6">
-    <sortCondition ref="C2:C6"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D41"/>
@@ -3751,102 +3961,102 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3956,13 +4166,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3987,25 +4197,25 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4013,10 +4223,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4024,10 +4234,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4035,98 +4245,98 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/fr/fr-noun.xlsx
+++ b/fr/fr-noun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="5"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,11 @@
     <sheet name="doc" sheetId="4" r:id="rId4"/>
     <sheet name="lang" sheetId="8" r:id="rId5"/>
     <sheet name="symbol" sheetId="5" r:id="rId6"/>
-    <sheet name="loc" sheetId="3" r:id="rId7"/>
-    <sheet name="sport" sheetId="6" r:id="rId8"/>
-    <sheet name="cloth" sheetId="7" r:id="rId9"/>
+    <sheet name="nature" sheetId="11" r:id="rId7"/>
+    <sheet name="loc" sheetId="3" r:id="rId8"/>
+    <sheet name="room" sheetId="10" r:id="rId9"/>
+    <sheet name="sport" sheetId="6" r:id="rId10"/>
+    <sheet name="cloth" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="425">
   <si>
     <t>French</t>
   </si>
@@ -343,6 +345,18 @@
     <t>femme</t>
   </si>
   <si>
+    <t>expéditeur</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>destinataire</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
     <t>monsieur</t>
   </si>
   <si>
@@ -355,6 +369,12 @@
     <t>fille</t>
   </si>
   <si>
+    <t>copain</t>
+  </si>
+  <si>
+    <t>copine</t>
+  </si>
+  <si>
     <t>avocat</t>
   </si>
   <si>
@@ -505,6 +525,42 @@
     <t>writer</t>
   </si>
   <si>
+    <t>directeur</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>couturier</t>
+  </si>
+  <si>
+    <t>taylor</t>
+  </si>
+  <si>
+    <t>opticien</t>
+  </si>
+  <si>
+    <t>optician</t>
+  </si>
+  <si>
+    <t>coiffeur</t>
+  </si>
+  <si>
+    <t>barber</t>
+  </si>
+  <si>
+    <t>cuisinier</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>réalisateur</t>
+  </si>
+  <si>
+    <t>film director</t>
+  </si>
+  <si>
     <t>affiche</t>
   </si>
   <si>
@@ -643,6 +699,18 @@
     <t>book</t>
   </si>
   <si>
+    <t>dépliant</t>
+  </si>
+  <si>
+    <t>foldable booklet</t>
+  </si>
+  <si>
+    <t>timbre</t>
+  </si>
+  <si>
+    <t>stamp</t>
+  </si>
+  <si>
     <t>voyelle</t>
   </si>
   <si>
@@ -745,46 +813,235 @@
     <t>@</t>
   </si>
   <si>
+    <t>plage</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>rivière</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>montagne</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
     <t>appartement</t>
   </si>
   <si>
     <t>apartment</t>
   </si>
   <si>
+    <t>bâtiment</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>charcuterie</t>
+  </si>
+  <si>
+    <t>hôtel</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>immeuble</t>
+  </si>
+  <si>
+    <t>big building</t>
+  </si>
+  <si>
+    <t>pâtisserie</t>
+  </si>
+  <si>
+    <t>maison</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>gîte</t>
+  </si>
+  <si>
+    <t>little hotel</t>
+  </si>
+  <si>
+    <t>boulangerie</t>
+  </si>
+  <si>
+    <t>château</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>auberge</t>
+  </si>
+  <si>
+    <t>médiathèque</t>
+  </si>
+  <si>
+    <t>castel</t>
+  </si>
+  <si>
+    <t>little castle</t>
+  </si>
+  <si>
+    <t>cabane</t>
+  </si>
+  <si>
+    <t>lodging hut</t>
+  </si>
+  <si>
+    <t>bibliothèque</t>
+  </si>
+  <si>
+    <t>ferme</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>cabanon</t>
+  </si>
+  <si>
+    <t>cottage</t>
+  </si>
+  <si>
+    <t>couturière</t>
+  </si>
+  <si>
+    <t>jardin</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>cellar</t>
+  </si>
+  <si>
+    <t>marché</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>église</t>
+  </si>
+  <si>
+    <t>chapel</t>
+  </si>
+  <si>
+    <t>musée</t>
+  </si>
+  <si>
+    <t>museum</t>
+  </si>
+  <si>
+    <t>magasin</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>théâtre</t>
+  </si>
+  <si>
+    <t>theater</t>
+  </si>
+  <si>
+    <t>piscine</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>parc</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>pont</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>école</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cathédrale</t>
+  </si>
+  <si>
+    <t>cathedral</t>
+  </si>
+  <si>
+    <t>banlieue</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>rue</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
     <t>allée</t>
   </si>
   <si>
     <t>alley</t>
   </si>
   <si>
+    <t>cloison</t>
+  </si>
+  <si>
+    <t>partitions</t>
+  </si>
+  <si>
     <t>bain</t>
   </si>
   <si>
     <t>bath</t>
   </si>
   <si>
-    <t>bâtiment</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
     <t>chambre</t>
   </si>
   <si>
     <t>sleeping room</t>
   </si>
   <si>
-    <t>cloison</t>
-  </si>
-  <si>
-    <t>partitions</t>
-  </si>
-  <si>
-    <t>hôtel</t>
-  </si>
-  <si>
-    <t>hotel</t>
+    <t>escalier</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>bed</t>
   </si>
   <si>
     <t>combles</t>
@@ -793,16 +1050,16 @@
     <t>attics</t>
   </si>
   <si>
-    <t>escalier</t>
-  </si>
-  <si>
-    <t>stairs</t>
-  </si>
-  <si>
-    <t>immeuble</t>
-  </si>
-  <si>
-    <t>big building</t>
+    <t>fenêtre</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>lavabo</t>
+  </si>
+  <si>
+    <t>sink</t>
   </si>
   <si>
     <t>cuisine</t>
@@ -811,16 +1068,10 @@
     <t>kitchen</t>
   </si>
   <si>
-    <t>fenêtre</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>maison</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>mur</t>
+  </si>
+  <si>
+    <t>wall</t>
   </si>
   <si>
     <t>palier</t>
@@ -829,16 +1080,10 @@
     <t>hallway</t>
   </si>
   <si>
-    <t>lavabo</t>
-  </si>
-  <si>
-    <t>sink</t>
-  </si>
-  <si>
-    <t>gîte</t>
-  </si>
-  <si>
-    <t>little hotel</t>
+    <t>plafond</t>
+  </si>
+  <si>
+    <t>ceiling</t>
   </si>
   <si>
     <t>salle d'eau</t>
@@ -847,13 +1092,10 @@
     <t>bathroom</t>
   </si>
   <si>
-    <t>mur</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>auberge</t>
+    <t>porte</t>
+  </si>
+  <si>
+    <t>door</t>
   </si>
   <si>
     <t>salon</t>
@@ -862,103 +1104,28 @@
     <t>living room</t>
   </si>
   <si>
-    <t>plafond</t>
-  </si>
-  <si>
-    <t>ceiling</t>
-  </si>
-  <si>
-    <t>cabane</t>
-  </si>
-  <si>
-    <t>lodging hut</t>
-  </si>
-  <si>
-    <t>porte</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>cabanon</t>
-  </si>
-  <si>
-    <t>cottage</t>
-  </si>
-  <si>
     <t>rez-de-chaussée</t>
   </si>
   <si>
     <t>ground floor</t>
   </si>
   <si>
-    <t>cave</t>
-  </si>
-  <si>
-    <t>cellar</t>
-  </si>
-  <si>
     <t>toit</t>
   </si>
   <si>
     <t>roof</t>
   </si>
   <si>
-    <t>château</t>
-  </si>
-  <si>
-    <t>castle</t>
-  </si>
-  <si>
     <t>étage</t>
   </si>
   <si>
     <t>floor</t>
   </si>
   <si>
-    <t>ferme</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
     <t>couloir</t>
   </si>
   <si>
     <t>corridor</t>
-  </si>
-  <si>
-    <t>jardin</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>marché</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>piscine</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>église</t>
-  </si>
-  <si>
-    <t>chapel</t>
-  </si>
-  <si>
-    <t>charcuterie</t>
-  </si>
-  <si>
-    <t>pâtisserie</t>
-  </si>
-  <si>
-    <t>boulangerie</t>
   </si>
   <si>
     <t>canoë-kayak</t>
@@ -1773,7 +1940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1793,9 +1960,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2548,7 +2712,7 @@
       <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="1"/>
@@ -2700,7 +2864,7 @@
       <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2759,14 +2923,14 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
@@ -2781,16 +2945,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="12.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="23.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="11.4615384615385" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -2807,34 +2977,495 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="C2:D7">
+    <sortCondition ref="C2:C7"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.3846153846154" customWidth="1"/>
+    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.38461538461539" customWidth="1"/>
+    <col min="7" max="7" width="12.3076923076923" customWidth="1"/>
+    <col min="8" max="8" width="8.53846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2847,8 +3478,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2883,16 +3514,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2901,181 +3532,221 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3"/>
@@ -3100,13 +3771,13 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.0769230769231" customWidth="1"/>
-    <col min="2" max="2" width="10.7692307692308" customWidth="1"/>
+    <col min="2" max="2" width="16.6923076923077" customWidth="1"/>
     <col min="3" max="3" width="11.3846153846154" customWidth="1"/>
     <col min="4" max="4" width="12.6153846153846" customWidth="1"/>
   </cols>
@@ -3127,167 +3798,181 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
+      <c r="A13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
@@ -3341,34 +4026,34 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3381,7 +4066,7 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+    <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3409,110 +4094,110 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>235</v>
+      <c r="A10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3580,10 +4265,87 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="10.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="10.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3618,275 +4380,227 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>286</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>290</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3"/>
@@ -3921,246 +4635,8 @@
     <sortCondition ref="E2:E12"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.1538461538462" customWidth="1"/>
-    <col min="2" max="2" width="12.3846153846154" customWidth="1"/>
-    <col min="3" max="3" width="23.9230769230769" customWidth="1"/>
-    <col min="4" max="4" width="11.4615384615385" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-  </sheetData>
-  <sortState ref="C2:D7">
-    <sortCondition ref="C2:C7"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4169,19 +4645,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.3846153846154" customWidth="1"/>
-    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
+    <col min="1" max="1" width="10.9230769230769" customWidth="1"/>
+    <col min="2" max="2" width="14.4615384615385" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4194,155 +4672,166 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>348</v>
       </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B18">
-    <sortCondition ref="A2:A18"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/fr/fr-noun.xlsx
+++ b/fr/fr-noun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="2"/>
+    <workbookView windowWidth="29040" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="room" sheetId="10" r:id="rId9"/>
     <sheet name="sport" sheetId="6" r:id="rId10"/>
     <sheet name="cloth" sheetId="7" r:id="rId11"/>
+    <sheet name="bio" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="468">
   <si>
     <t>French</t>
   </si>
@@ -177,6 +178,12 @@
     <t>onion</t>
   </si>
   <si>
+    <t>tasse</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>sauté</t>
   </si>
   <si>
@@ -195,6 +202,12 @@
     <t>pork</t>
   </si>
   <si>
+    <t>bouteille</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
     <t>émincé</t>
   </si>
   <si>
@@ -213,6 +226,12 @@
     <t>pasta</t>
   </si>
   <si>
+    <t>verre</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
     <t>sucré</t>
   </si>
   <si>
@@ -375,6 +394,48 @@
     <t>copine</t>
   </si>
   <si>
+    <t>petit copain</t>
+  </si>
+  <si>
+    <t>boyfriend</t>
+  </si>
+  <si>
+    <t>beau gosse</t>
+  </si>
+  <si>
+    <t>handsome kid</t>
+  </si>
+  <si>
+    <t>oncle</t>
+  </si>
+  <si>
+    <t>tante</t>
+  </si>
+  <si>
+    <t>père</t>
+  </si>
+  <si>
+    <t>mère</t>
+  </si>
+  <si>
+    <t>frère</t>
+  </si>
+  <si>
+    <t>sœur</t>
+  </si>
+  <si>
+    <t>neveu</t>
+  </si>
+  <si>
+    <t>nièce</t>
+  </si>
+  <si>
+    <t>enfant</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
     <t>avocat</t>
   </si>
   <si>
@@ -387,16 +448,40 @@
     <t xml:space="preserve"> acrobat</t>
   </si>
   <si>
+    <t>chauffeur</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>architecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> architect</t>
+  </si>
+  <si>
     <t>chiffreur</t>
   </si>
   <si>
     <t>counter</t>
   </si>
   <si>
-    <t>architecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> architect</t>
+    <t>électricien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> electrician</t>
+  </si>
+  <si>
+    <t>coiffeur</t>
+  </si>
+  <si>
+    <t>barber</t>
+  </si>
+  <si>
+    <t>journaliste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> journalist</t>
   </si>
   <si>
     <t>comptable</t>
@@ -405,10 +490,10 @@
     <t>accountant</t>
   </si>
   <si>
-    <t>électricien</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> electrician</t>
+    <t>maçon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mason</t>
   </si>
   <si>
     <t>correcteur</t>
@@ -417,10 +502,34 @@
     <t xml:space="preserve"> proofreader</t>
   </si>
   <si>
-    <t>journaliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> journalist</t>
+    <t>mécanicien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mechanic</t>
+  </si>
+  <si>
+    <t>couturier</t>
+  </si>
+  <si>
+    <t>taylor</t>
+  </si>
+  <si>
+    <t>photographe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> photographer</t>
+  </si>
+  <si>
+    <t>cuisinier</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>plombier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plumber</t>
   </si>
   <si>
     <t>dompteur</t>
@@ -429,10 +538,10 @@
     <t>animal tamer</t>
   </si>
   <si>
-    <t>maçon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mason</t>
+    <t>informaticien</t>
+  </si>
+  <si>
+    <t>computer engineer</t>
   </si>
   <si>
     <t>enseignant</t>
@@ -441,10 +550,10 @@
     <t xml:space="preserve"> teacher educator</t>
   </si>
   <si>
-    <t>mécanicien</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mechanic</t>
+    <t>ingénieur</t>
+  </si>
+  <si>
+    <t>engineer</t>
   </si>
   <si>
     <t>infirmière</t>
@@ -453,10 +562,10 @@
     <t>nurse</t>
   </si>
   <si>
-    <t>photographe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> photographer</t>
+    <t>juge</t>
+  </si>
+  <si>
+    <t>judge</t>
   </si>
   <si>
     <t>menuisier</t>
@@ -465,10 +574,10 @@
     <t xml:space="preserve"> carpenter</t>
   </si>
   <si>
-    <t>plombier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plumber</t>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>professor</t>
   </si>
   <si>
     <t>médecin</t>
@@ -477,10 +586,10 @@
     <t>doctor</t>
   </si>
   <si>
-    <t>informaticien</t>
-  </si>
-  <si>
-    <t>computer engineer</t>
+    <t>directeur</t>
+  </si>
+  <si>
+    <t>director</t>
   </si>
   <si>
     <t>ouvrier</t>
@@ -489,10 +598,10 @@
     <t>worker</t>
   </si>
   <si>
-    <t>ingénieur</t>
-  </si>
-  <si>
-    <t>engineer</t>
+    <t>opticien</t>
+  </si>
+  <si>
+    <t>optician</t>
   </si>
   <si>
     <t>pâtissier</t>
@@ -501,10 +610,10 @@
     <t xml:space="preserve"> pastry chef</t>
   </si>
   <si>
-    <t>juge</t>
-  </si>
-  <si>
-    <t>judge</t>
+    <t>réalisateur</t>
+  </si>
+  <si>
+    <t>film director</t>
   </si>
   <si>
     <t>saltimbanque</t>
@@ -513,10 +622,10 @@
     <t>street performer</t>
   </si>
   <si>
-    <t>professeur</t>
-  </si>
-  <si>
-    <t>professor</t>
+    <t>serveur</t>
+  </si>
+  <si>
+    <t>waiter</t>
   </si>
   <si>
     <t>écrivain</t>
@@ -525,42 +634,6 @@
     <t>writer</t>
   </si>
   <si>
-    <t>directeur</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>couturier</t>
-  </si>
-  <si>
-    <t>taylor</t>
-  </si>
-  <si>
-    <t>opticien</t>
-  </si>
-  <si>
-    <t>optician</t>
-  </si>
-  <si>
-    <t>coiffeur</t>
-  </si>
-  <si>
-    <t>barber</t>
-  </si>
-  <si>
-    <t>cuisinier</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>réalisateur</t>
-  </si>
-  <si>
-    <t>film director</t>
-  </si>
-  <si>
     <t>affiche</t>
   </si>
   <si>
@@ -621,16 +694,28 @@
     <t xml:space="preserve"> form</t>
   </si>
   <si>
+    <t>dépliant</t>
+  </si>
+  <si>
+    <t>foldable booklet</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> letter</t>
+  </si>
+  <si>
     <t>feuille</t>
   </si>
   <si>
     <t xml:space="preserve"> sheet</t>
   </si>
   <si>
-    <t>lettre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> letter</t>
+    <t>liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> list</t>
   </si>
   <si>
     <t>fiche</t>
@@ -639,10 +724,34 @@
     <t xml:space="preserve"> card/file</t>
   </si>
   <si>
-    <t>liste</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> list</t>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>livre</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>revue</t>
+  </si>
+  <si>
+    <t>review</t>
   </si>
   <si>
     <t>plaquette</t>
@@ -651,10 +760,10 @@
     <t xml:space="preserve"> pamphlet</t>
   </si>
   <si>
-    <t>manuel</t>
-  </si>
-  <si>
-    <t>manual</t>
+    <t>thèse</t>
+  </si>
+  <si>
+    <t>thesis</t>
   </si>
   <si>
     <t>tableau</t>
@@ -663,22 +772,13 @@
     <t xml:space="preserve"> chart</t>
   </si>
   <si>
-    <t>rapport</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
     <t>tampon</t>
   </si>
   <si>
-    <t xml:space="preserve"> stamp</t>
-  </si>
-  <si>
-    <t>revue</t>
-  </si>
-  <si>
-    <t>review</t>
+    <t>stamp</t>
+  </si>
+  <si>
+    <t>timbre</t>
   </si>
   <si>
     <t>tract</t>
@@ -687,30 +787,6 @@
     <t xml:space="preserve"> leaflet</t>
   </si>
   <si>
-    <t>thèse</t>
-  </si>
-  <si>
-    <t>thesis</t>
-  </si>
-  <si>
-    <t>livre</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>dépliant</t>
-  </si>
-  <si>
-    <t>foldable booklet</t>
-  </si>
-  <si>
-    <t>timbre</t>
-  </si>
-  <si>
-    <t>stamp</t>
-  </si>
-  <si>
     <t>voyelle</t>
   </si>
   <si>
@@ -1312,6 +1388,60 @@
   </si>
   <si>
     <t>scarf</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>plante</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>cheval</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>arbre</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>chouette</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>fleur</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>chien</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>bois</t>
+  </si>
+  <si>
+    <t>woods</t>
+  </si>
+  <si>
+    <t>vache</t>
+  </si>
+  <si>
+    <t>cow</t>
   </si>
 </sst>
 </file>
@@ -1947,14 +2077,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2506,8 +2636,8 @@
   <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="212" zoomScaleNormal="212" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2551,22 +2681,22 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2583,16 +2713,16 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2615,36 +2745,36 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2661,10 +2791,10 @@
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2673,10 +2803,10 @@
       <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2687,77 +2817,89 @@
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2765,17 +2907,17 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2783,17 +2925,17 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2801,17 +2943,17 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
+      <c r="A13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2819,17 +2961,17 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>77</v>
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2838,16 +2980,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2855,71 +2997,71 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>85</v>
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>93</v>
+      <c r="A19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>95</v>
+      <c r="A20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
+      <c r="A21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2933,8 +3075,8 @@
       <c r="A25" s="9"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
   </sheetData>
   <sortState ref="C2:D16">
@@ -2977,202 +3119,202 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>366</v>
+      <c r="A2" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>368</v>
+      <c r="A3" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>370</v>
+        <v>394</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>374</v>
+      <c r="A4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>378</v>
+      <c r="A5" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>382</v>
+      <c r="A6" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>386</v>
+      <c r="A7" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>388</v>
+        <v>412</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>390</v>
+      <c r="A9" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
     </row>
   </sheetData>
   <sortState ref="C2:D7">
@@ -3189,7 +3331,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3214,25 +3356,25 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3240,10 +3382,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3251,10 +3393,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3262,98 +3404,98 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3365,17 +3507,114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="330" zoomScaleNormal="330" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="12.5384615384615" customWidth="1"/>
+    <col min="2" max="2" width="14.3076923076923" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="8.38461538461539" customWidth="1"/>
     <col min="7" max="7" width="12.3076923076923" customWidth="1"/>
@@ -3410,62 +3649,125 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>105</v>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3478,8 +3780,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3514,16 +3816,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3532,233 +3834,249 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>123</v>
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>127</v>
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>131</v>
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>135</v>
+      <c r="A7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>139</v>
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>143</v>
+      <c r="A9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>145</v>
+      <c r="A10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>149</v>
+      <c r="A11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>153</v>
+      <c r="A12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>159</v>
+      <c r="A13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>163</v>
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>167</v>
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>169</v>
+      <c r="A16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>171</v>
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>173</v>
+      <c r="A18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="C2:D13">
-    <sortCondition ref="D13"/>
+  <sortState ref="A13:B20">
+    <sortCondition ref="A13:A20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3771,7 +4089,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -3797,200 +4115,206 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>175</v>
+      <c r="A2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>181</v>
+      <c r="A3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>185</v>
+      <c r="A4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>189</v>
+      <c r="A5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>193</v>
+      <c r="A6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>197</v>
+      <c r="A7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>201</v>
+      <c r="A8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>205</v>
+      <c r="A9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>209</v>
+        <v>231</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>213</v>
+      <c r="A11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>217</v>
+      <c r="A12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>219</v>
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>221</v>
+      <c r="A14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B12">
-    <sortCondition ref="A2:A12"/>
+  <sortState ref="A2:B16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4027,30 +4351,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4094,164 +4418,164 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>233</v>
+        <v>256</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>260</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>264</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>268</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>249</v>
+        <v>272</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <sortState ref="C2:D6">
@@ -4268,7 +4592,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -4292,46 +4616,46 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>261</v>
+      <c r="A2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>263</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4379,256 +4703,256 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>272</v>
+      <c r="A3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>298</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>277</v>
+      <c r="A4" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>287</v>
+      <c r="A6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>292</v>
+      <c r="A7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>324</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>322</v>
+      <c r="C15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="3:4">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" ht="3" customHeight="1" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" hidden="1" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <sortState ref="E2:F12">
@@ -4680,151 +5004,151 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>325</v>
+      <c r="A2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>328</v>
+        <v>351</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>329</v>
+      <c r="A3" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>334</v>
+        <v>355</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>335</v>
+      <c r="A4" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>340</v>
+        <v>363</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>348</v>
+      <c r="A6" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>349</v>
+      <c r="A7" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>352</v>
+        <v>375</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>356</v>
+      <c r="A8" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>357</v>
+      <c r="C9" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>359</v>
+      <c r="C10" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/fr/fr-noun.xlsx
+++ b/fr/fr-noun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="468">
   <si>
     <t>French</t>
   </si>
@@ -724,10 +724,10 @@
     <t xml:space="preserve"> card/file</t>
   </si>
   <si>
-    <t>manuel</t>
-  </si>
-  <si>
-    <t>manual</t>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>report</t>
   </si>
   <si>
     <t>journal</t>
@@ -736,10 +736,10 @@
     <t>newspaper</t>
   </si>
   <si>
-    <t>rapport</t>
-  </si>
-  <si>
-    <t>report</t>
+    <t>revue</t>
+  </si>
+  <si>
+    <t>review</t>
   </si>
   <si>
     <t>livre</t>
@@ -748,10 +748,10 @@
     <t>book</t>
   </si>
   <si>
-    <t>revue</t>
-  </si>
-  <si>
-    <t>review</t>
+    <t>thèse</t>
+  </si>
+  <si>
+    <t>thesis</t>
   </si>
   <si>
     <t>plaquette</t>
@@ -760,12 +760,6 @@
     <t xml:space="preserve"> pamphlet</t>
   </si>
   <si>
-    <t>thèse</t>
-  </si>
-  <si>
-    <t>thesis</t>
-  </si>
-  <si>
     <t>tableau</t>
   </si>
   <si>
@@ -937,6 +931,9 @@
     <t>pâtisserie</t>
   </si>
   <si>
+    <t>pastry</t>
+  </si>
+  <si>
     <t>maison</t>
   </si>
   <si>
@@ -952,6 +949,9 @@
     <t>boulangerie</t>
   </si>
   <si>
+    <t>bakery</t>
+  </si>
+  <si>
     <t>château</t>
   </si>
   <si>
@@ -961,7 +961,10 @@
     <t>auberge</t>
   </si>
   <si>
-    <t>médiathèque</t>
+    <t>bibliothèque</t>
+  </si>
+  <si>
+    <t>library</t>
   </si>
   <si>
     <t>castel</t>
@@ -976,7 +979,7 @@
     <t>lodging hut</t>
   </si>
   <si>
-    <t>bibliothèque</t>
+    <t>couturière</t>
   </si>
   <si>
     <t>ferme</t>
@@ -989,9 +992,6 @@
   </si>
   <si>
     <t>cottage</t>
-  </si>
-  <si>
-    <t>couturière</t>
   </si>
   <si>
     <t>jardin</t>
@@ -2077,14 +2077,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2636,8 +2636,8 @@
   <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2681,22 +2681,22 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2713,16 +2713,16 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2745,36 +2745,36 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2791,10 +2791,10 @@
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2803,10 +2803,10 @@
       <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2817,10 +2817,10 @@
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2829,18 +2829,18 @@
       <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2863,16 +2863,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2881,24 +2881,24 @@
       <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="1"/>
@@ -2907,10 +2907,10 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2925,16 +2925,16 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="1"/>
@@ -2943,10 +2943,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2961,10 +2961,10 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2985,10 +2985,10 @@
       <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="1"/>
@@ -2997,10 +2997,10 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3031,28 +3031,28 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3075,8 +3075,8 @@
       <c r="A25" s="9"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
   </sheetData>
   <sortState ref="C2:D16">
@@ -3119,86 +3119,86 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>393</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3206,115 +3206,115 @@
       <c r="A8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
     </row>
   </sheetData>
   <sortState ref="C2:D7">
@@ -3533,66 +3533,66 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>467</v>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3707,67 +3707,67 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3780,8 +3780,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -3821,10 +3821,10 @@
       <c r="B2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E2" s="1"/>
@@ -3833,32 +3833,32 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E4" s="1"/>
@@ -3871,10 +3871,10 @@
       <c r="B5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E5" s="1"/>
@@ -3887,42 +3887,42 @@
       <c r="B6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>159</v>
       </c>
       <c r="E8" s="1"/>
@@ -3935,18 +3935,18 @@
       <c r="B9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3957,10 +3957,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3985,16 +3985,16 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4043,18 +4043,18 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4067,12 +4067,12 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A13:B20">
@@ -4086,10 +4086,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -4115,10 +4115,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4129,58 +4129,58 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4191,52 +4191,52 @@
       <c r="B7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4247,70 +4247,64 @@
       <c r="B11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:B16">
@@ -4327,7 +4321,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -4351,30 +4345,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4391,7 +4385,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -4418,164 +4412,164 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
   <sortState ref="C2:D6">
@@ -4592,7 +4586,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D3"/>
+      <selection activeCell="C3" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -4617,26 +4611,26 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4668,8 +4662,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -4703,120 +4697,127 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>321</v>
       </c>
       <c r="E8" s="1"/>
@@ -4831,7 +4832,7 @@
       <c r="C9" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E9" s="1"/>
@@ -4843,10 +4844,10 @@
       <c r="B10" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E10" s="1"/>
@@ -4858,10 +4859,10 @@
       <c r="B11" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>333</v>
       </c>
       <c r="E11" s="1"/>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>342</v>
       </c>
@@ -4909,7 +4910,6 @@
       <c r="D14" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="1" t="s">
@@ -4924,35 +4924,35 @@
       <c r="D16" s="1"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" ht="3" customHeight="1" spans="1:2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" hidden="1" spans="1:2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <sortState ref="E2:F12">
@@ -5004,36 +5004,36 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5044,87 +5044,87 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>369</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -5134,7 +5134,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D10" s="1" t="s">
